--- a/KiCAD/TTL 6510 Computer_BOM.xlsx
+++ b/KiCAD/TTL 6510 Computer_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faba518e9f36d98b/Documents/KiCad/9.0/projects/TTL 6510 Computer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faba518e9f36d98b/Documents/GitHub/TTL-6510-Computer/KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{139AC9BC-7F38-4BDF-AE2E-2D5D339C1B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60805B3E-0DD6-4ADE-BA55-761F2C28B49B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{139AC9BC-7F38-4BDF-AE2E-2D5D339C1B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C59AB3-8850-4580-9482-205D4BBEC486}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2716216F-8A2B-47AA-BA04-6D839DAFDA32}"/>
+    <workbookView xWindow="-14250" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{2716216F-8A2B-47AA-BA04-6D839DAFDA32}"/>
   </bookViews>
   <sheets>
     <sheet name="TTL 6510 Computer_BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="304">
   <si>
     <t>Reference</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/assmann-wsw-components/A-24-LC-7-T/1628667</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPTC111LFBN-RC/810150</t>
   </si>
 </sst>
 </file>
@@ -1788,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F01B9B-9919-4DB3-B648-C77C1D7DF6AB}">
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1964,7 @@
       <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2001,8 +2004,8 @@
       <c r="H8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" t="s">
-        <v>33</v>
+      <c r="I8" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -4798,8 +4801,10 @@
     <hyperlink ref="I95" r:id="rId7" xr:uid="{4C7DC2EE-33E8-425F-AFF9-6A4F5734DC70}"/>
     <hyperlink ref="I92" r:id="rId8" xr:uid="{E412A3BE-BA3F-4932-9C24-D72AF15084DD}"/>
     <hyperlink ref="I2" r:id="rId9" xr:uid="{85473FCE-1797-40E5-95CC-FE448163D308}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{CDE472E1-0D3F-4AFB-AE53-15823FF8FC0E}"/>
+    <hyperlink ref="I8" r:id="rId11" xr:uid="{D6AFDF39-2557-42F1-B5B6-FDC0DBE87E96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId10"/>
+  <pageSetup orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>